--- a/xlsx/電影_intext.xlsx
+++ b/xlsx/電影_intext.xlsx
@@ -29,7 +29,7 @@
     <t>郎德海花园场景</t>
   </si>
   <si>
-    <t>政策_政策_美國_電影</t>
+    <t>体育运动_体育运动_娱乐_電影</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A8%E6%BC%94%E8%97%9D%E8%A1%93</t>
